--- a/RISCV分支预测性能统计.xlsx
+++ b/RISCV分支预测性能统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HONOR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\c++\ACM Class\PPCA\RISC-V-simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6A7A8-8514-47A8-96DC-5035D95696DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E67539-32D1-4913-B92D-A1B24054C14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{3AB78F7E-06BB-4CFD-86B5-D25ADBAC9E76}"/>
   </bookViews>
@@ -231,19 +231,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -255,8 +243,20 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,7 +575,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="I21" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -596,30 +596,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -638,8 +638,8 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
@@ -674,10 +674,10 @@
       <c r="F3" s="1">
         <v>304</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>0.45454499999999998</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <f>POWER(B3,1/4) - 2</f>
         <v>2.2095183984239037</v>
       </c>
@@ -685,15 +685,15 @@
         <v>0.54549999999999998</v>
       </c>
       <c r="K3" s="2">
-        <f>H3*C3</f>
+        <f t="shared" ref="K3:K20" si="0">H3*C3</f>
         <v>1.0043255404115932</v>
       </c>
       <c r="L3" s="2">
-        <f>H3*E3</f>
+        <f t="shared" ref="L3:L20" si="1">H3*E3</f>
         <v>1.2051928580123106</v>
       </c>
       <c r="M3" s="2">
-        <f>H3*G3</f>
+        <f t="shared" ref="M3:M20" si="2">H3*G3</f>
         <v>1.0043255404115932</v>
       </c>
       <c r="N3">
@@ -709,7 +709,7 @@
       <c r="B4" s="1">
         <v>358</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.5</v>
       </c>
       <c r="D4" s="1">
@@ -721,30 +721,30 @@
       <c r="F4" s="1">
         <v>356</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>0.42307699999999998</v>
       </c>
-      <c r="H4" s="8">
-        <f t="shared" ref="H4:H20" si="0">POWER(B4,1/4) - 2</f>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H20" si="3">POWER(B4,1/4) - 2</f>
         <v>2.3498147004699526</v>
       </c>
       <c r="I4" s="3">
         <v>0.5</v>
       </c>
       <c r="K4" s="2">
-        <f>H4*C4</f>
+        <f t="shared" si="0"/>
         <v>1.1749073502349763</v>
       </c>
       <c r="L4" s="2">
-        <f>H4*E4</f>
+        <f t="shared" si="1"/>
         <v>1.3556621464392264</v>
       </c>
       <c r="M4" s="2">
-        <f>H4*G4</f>
+        <f t="shared" si="2"/>
         <v>0.99415255403072611</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N20" si="1">H4*I4</f>
+        <f t="shared" ref="N4:N20" si="4">H4*I4</f>
         <v>1.1749073502349763</v>
       </c>
       <c r="P4" s="2"/>
@@ -768,30 +768,30 @@
       <c r="F5" s="1">
         <v>768606</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>0.92225699999999999</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
+      <c r="H5" s="5">
+        <f t="shared" si="3"/>
         <v>29.901138878368403</v>
       </c>
       <c r="I5" s="3">
         <v>0.98640000000000005</v>
       </c>
       <c r="K5" s="2">
-        <f>H5*C5</f>
+        <f t="shared" si="0"/>
         <v>12.266224597517557</v>
       </c>
       <c r="L5" s="2">
-        <f>H5*E5</f>
+        <f t="shared" si="1"/>
         <v>24.639584975636307</v>
       </c>
       <c r="M5" s="2">
-        <f>H5*G5</f>
+        <f t="shared" si="2"/>
         <v>27.576534638547407</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29.494483389622594</v>
       </c>
       <c r="P5" s="2"/>
@@ -815,30 +815,30 @@
       <c r="F6" s="1">
         <v>660891</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>0.903613</v>
       </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
+      <c r="H6" s="5">
+        <f t="shared" si="3"/>
         <v>27.481547874124946</v>
       </c>
       <c r="I6" s="3">
         <v>0.90329999999999999</v>
       </c>
       <c r="K6" s="2">
-        <f>H6*C6</f>
+        <f t="shared" si="0"/>
         <v>13.564919512215948</v>
       </c>
       <c r="L6" s="2">
-        <f>H6*E6</f>
+        <f t="shared" si="1"/>
         <v>24.749277421383695</v>
       </c>
       <c r="M6" s="2">
-        <f>H6*G6</f>
+        <f t="shared" si="2"/>
         <v>24.832683919181665</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24.824082194697063</v>
       </c>
       <c r="P6" s="2"/>
@@ -862,30 +862,30 @@
       <c r="F7" s="1">
         <v>793</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>0.76576599999999995</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
+      <c r="H7" s="5">
+        <f t="shared" si="3"/>
         <v>3.3947441479379261</v>
       </c>
       <c r="I7" s="3">
         <v>0.76580000000000004</v>
       </c>
       <c r="K7" s="2">
-        <f>H7*C7</f>
+        <f t="shared" si="0"/>
         <v>2.1102476467294697</v>
       </c>
       <c r="L7" s="2">
-        <f>H7*E7</f>
+        <f t="shared" si="1"/>
         <v>2.874828897448789</v>
       </c>
       <c r="M7" s="2">
-        <f>H7*G7</f>
+        <f t="shared" si="2"/>
         <v>2.5995796471898336</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.5996950684908637</v>
       </c>
       <c r="P7" s="2"/>
@@ -909,30 +909,30 @@
       <c r="F8" s="1">
         <v>724</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>0.68333299999999997</v>
       </c>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
+      <c r="H8" s="5">
+        <f t="shared" si="3"/>
         <v>3.3915567053956934</v>
       </c>
       <c r="I8" s="3">
         <v>0.63329999999999997</v>
       </c>
       <c r="K8" s="2">
-        <f>H8*C8</f>
+        <f t="shared" si="0"/>
         <v>1.271833764523385</v>
       </c>
       <c r="L8" s="2">
-        <f>H8*E8</f>
+        <f t="shared" si="1"/>
         <v>2.2893007761420932</v>
       </c>
       <c r="M8" s="2">
-        <f>H8*G8</f>
+        <f t="shared" si="2"/>
         <v>2.3175626181681555</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.1478728615270928</v>
       </c>
       <c r="P8" s="2"/>
@@ -956,30 +956,30 @@
       <c r="F9" s="1">
         <v>366384</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>0.80758399999999997</v>
       </c>
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
+      <c r="H9" s="5">
+        <f t="shared" si="3"/>
         <v>22.983487647735725</v>
       </c>
       <c r="I9" s="3">
         <v>0.97099999999999997</v>
       </c>
       <c r="K9" s="2">
-        <f>H9*C9</f>
+        <f t="shared" si="0"/>
         <v>11.496340521397409</v>
       </c>
       <c r="L9" s="2">
-        <f>H9*E9</f>
+        <f t="shared" si="1"/>
         <v>14.043922226223028</v>
       </c>
       <c r="M9" s="2">
-        <f>H9*G9</f>
+        <f t="shared" si="2"/>
         <v>18.561096888509006</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.316966505951388</v>
       </c>
       <c r="P9" s="2"/>
@@ -1003,30 +1003,30 @@
       <c r="F10" s="1">
         <v>71</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="6">
         <v>0.66666700000000001</v>
       </c>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
+      <c r="H10" s="5">
+        <f t="shared" si="3"/>
         <v>0.96225663766529923</v>
       </c>
       <c r="I10" s="3">
         <v>0.66669999999999996</v>
       </c>
       <c r="K10" s="2">
-        <f>H10*C10</f>
+        <f t="shared" si="0"/>
         <v>0.32075189180288716</v>
       </c>
       <c r="L10" s="2">
-        <f>H10*E10</f>
+        <f t="shared" si="1"/>
         <v>0.64150474586241202</v>
       </c>
       <c r="M10" s="2">
-        <f>H10*G10</f>
+        <f t="shared" si="2"/>
         <v>0.64150474586241202</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.64153650033145493</v>
       </c>
       <c r="P10" s="2"/>
@@ -1050,30 +1050,30 @@
       <c r="F11" s="1">
         <v>978564</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <v>0.80105800000000005</v>
       </c>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
+      <c r="H11" s="5">
+        <f t="shared" si="3"/>
         <v>30.145850411564702</v>
       </c>
       <c r="I11" s="3">
         <v>0.76270000000000004</v>
       </c>
       <c r="K11" s="2">
-        <f>H11*C11</f>
+        <f t="shared" si="0"/>
         <v>14.125260252244402</v>
       </c>
       <c r="L11" s="2">
-        <f>H11*E11</f>
+        <f t="shared" si="1"/>
         <v>22.84624375535719</v>
       </c>
       <c r="M11" s="2">
-        <f>H11*G11</f>
+        <f t="shared" si="2"/>
         <v>24.148574638987199</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.9922401089004</v>
       </c>
       <c r="P11" s="2"/>
@@ -1085,42 +1085,42 @@
       <c r="B12" s="1">
         <v>103</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>0.2</v>
       </c>
       <c r="D12" s="1">
         <v>91</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.6</v>
       </c>
       <c r="F12" s="1">
         <v>83</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <v>0.8</v>
       </c>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
+      <c r="H12" s="5">
+        <f t="shared" si="3"/>
         <v>1.1857325005549697</v>
       </c>
       <c r="I12" s="3">
         <v>0.8</v>
       </c>
       <c r="K12" s="2">
-        <f>H12*C12</f>
+        <f t="shared" si="0"/>
         <v>0.23714650011099395</v>
       </c>
       <c r="L12" s="2">
-        <f>H12*E12</f>
+        <f t="shared" si="1"/>
         <v>0.71143950033298176</v>
       </c>
       <c r="M12" s="2">
-        <f>H12*G12</f>
+        <f t="shared" si="2"/>
         <v>0.94858600044397579</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.94858600044397579</v>
       </c>
       <c r="P12" s="2"/>
@@ -1144,30 +1144,30 @@
       <c r="F13" s="1">
         <v>2989</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>0.72222200000000003</v>
       </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
+      <c r="H13" s="5">
+        <f t="shared" si="3"/>
         <v>5.37914721090777</v>
       </c>
       <c r="I13" s="3">
         <v>0.56789999999999996</v>
       </c>
       <c r="K13" s="2">
-        <f>H13*C13</f>
+        <f t="shared" si="0"/>
         <v>4.3830098346558142</v>
       </c>
       <c r="L13" s="2">
-        <f>H13*E13</f>
+        <f t="shared" si="1"/>
         <v>4.4826208827074048</v>
       </c>
       <c r="M13" s="2">
-        <f>H13*G13</f>
+        <f t="shared" si="2"/>
         <v>3.8849384569562315</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.0548177010745223</v>
       </c>
       <c r="P13" s="2"/>
@@ -1179,42 +1179,42 @@
       <c r="B14" s="1">
         <v>39</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>39</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>39</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
+      <c r="H14" s="5">
+        <f t="shared" si="3"/>
         <v>0.49899939943938332</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <f>H14*C14</f>
+        <f t="shared" si="0"/>
         <v>0.49899939943938332</v>
       </c>
       <c r="L14" s="2">
-        <f>H14*E14</f>
+        <f t="shared" si="1"/>
         <v>0.49899939943938332</v>
       </c>
       <c r="M14" s="2">
-        <f>H14*G14</f>
+        <f t="shared" si="2"/>
         <v>0.49899939943938332</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.49899939943938332</v>
       </c>
     </row>
@@ -1237,30 +1237,30 @@
       <c r="F15" s="1">
         <v>151658749</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>0.84159300000000004</v>
       </c>
-      <c r="H15" s="8">
-        <f t="shared" si="0"/>
+      <c r="H15" s="5">
+        <f t="shared" si="3"/>
         <v>114.37316629869369</v>
       </c>
       <c r="I15" s="3">
         <v>0.81489999999999996</v>
       </c>
       <c r="K15" s="2">
-        <f>H15*C15</f>
+        <f t="shared" si="0"/>
         <v>66.027400157903273</v>
       </c>
       <c r="L15" s="2">
-        <f>H15*E15</f>
+        <f t="shared" si="1"/>
         <v>94.247148971445156</v>
       </c>
       <c r="M15" s="2">
-        <f>H15*G15</f>
+        <f t="shared" si="2"/>
         <v>96.255656144816527</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>93.202693216805486</v>
       </c>
       <c r="P15" s="2"/>
@@ -1284,30 +1284,30 @@
       <c r="F16" s="1">
         <v>2362557</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="6">
         <v>0.91233500000000001</v>
       </c>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
+      <c r="H16" s="5">
+        <f t="shared" si="3"/>
         <v>37.877914863393052</v>
       </c>
       <c r="I16" s="3">
         <v>0.91700000000000004</v>
       </c>
       <c r="K16" s="2">
-        <f>H16*C16</f>
+        <f t="shared" si="0"/>
         <v>26.512002584079291</v>
       </c>
       <c r="L16" s="2">
-        <f>H16*E16</f>
+        <f t="shared" si="1"/>
         <v>33.366730958992662</v>
       </c>
       <c r="M16" s="2">
-        <f>H16*G16</f>
+        <f t="shared" si="2"/>
         <v>34.557347456893702</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>34.734047929731432</v>
       </c>
       <c r="P16" s="2"/>
@@ -1331,30 +1331,30 @@
       <c r="F17" s="1">
         <v>1134400</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="6">
         <v>0.73311599999999999</v>
       </c>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
+      <c r="H17" s="5">
+        <f t="shared" si="3"/>
         <v>31.357008015978458</v>
       </c>
       <c r="I17" s="3">
         <v>0.75609999999999999</v>
       </c>
       <c r="K17" s="2">
-        <f>H17*C17</f>
+        <f t="shared" si="0"/>
         <v>11.532605836148621</v>
       </c>
       <c r="L17" s="2">
-        <f>H17*E17</f>
+        <f t="shared" si="1"/>
         <v>22.537786797468488</v>
       </c>
       <c r="M17" s="2">
-        <f>H17*G17</f>
+        <f t="shared" si="2"/>
         <v>22.988324288642062</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23.709033760881312</v>
       </c>
       <c r="P17" s="2"/>
@@ -1378,30 +1378,30 @@
       <c r="F18" s="1">
         <v>1654</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="6">
         <v>0.66831700000000005</v>
       </c>
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
+      <c r="H18" s="5">
+        <f t="shared" si="3"/>
         <v>4.56009676626039</v>
       </c>
       <c r="I18" s="3">
         <v>0.62870000000000004</v>
       </c>
       <c r="K18" s="2">
-        <f>H18*C18</f>
+        <f t="shared" si="0"/>
         <v>1.851130241392509</v>
       </c>
       <c r="L18" s="2">
-        <f>H18*E18</f>
+        <f t="shared" si="1"/>
         <v>2.7766930820403801</v>
       </c>
       <c r="M18" s="2">
-        <f>H18*G18</f>
+        <f t="shared" si="2"/>
         <v>3.0475901905368454</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.8669328369479072</v>
       </c>
       <c r="P18" s="2"/>
@@ -1425,30 +1425,30 @@
       <c r="F19" s="1">
         <v>594073</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="6">
         <v>0.95193399999999995</v>
       </c>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
+      <c r="H19" s="5">
+        <f t="shared" si="3"/>
         <v>34.097404890998888</v>
       </c>
       <c r="I19" s="3">
         <v>0.91849999999999998</v>
       </c>
       <c r="K19" s="2">
-        <f>H19*C19</f>
+        <f t="shared" si="0"/>
         <v>4.332211681020973</v>
       </c>
       <c r="L19" s="2">
-        <f>H19*E19</f>
+        <f t="shared" si="1"/>
         <v>31.991242288286777</v>
       </c>
       <c r="M19" s="2">
-        <f>H19*G19</f>
+        <f t="shared" si="2"/>
         <v>32.458479027508133</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31.318466392382479</v>
       </c>
       <c r="P19" s="2"/>
@@ -1472,58 +1472,58 @@
       <c r="F20" s="1">
         <v>2954617</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="6">
         <v>0.76876299999999997</v>
       </c>
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
+      <c r="H20" s="5">
+        <f t="shared" si="3"/>
         <v>39.622307965264376</v>
       </c>
       <c r="I20" s="3">
         <v>0.70340000000000003</v>
       </c>
       <c r="K20" s="2">
-        <f>H20*C20</f>
+        <f t="shared" si="0"/>
         <v>9.9057354805479552</v>
       </c>
       <c r="L20" s="2">
-        <f>H20*E20</f>
+        <f t="shared" si="1"/>
         <v>29.243482127611166</v>
       </c>
       <c r="M20" s="2">
-        <f>H20*G20</f>
+        <f t="shared" si="2"/>
         <v>30.460164338300537</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27.870331422766963</v>
       </c>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="10">
         <f>K21/H21</f>
         <v>0.46612620541320265</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
         <f>L21/H21</f>
         <v>0.80276770164561284</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12">
+      <c r="E21" s="10"/>
+      <c r="F21" s="11">
         <f>M21/H21</f>
         <v>0.83665079965949751</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="9">
         <f>SUM(H3:H20)</f>
         <v>391.77169331317754</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="10">
         <f>N21/H21</f>
         <v>0.8310988018889055</v>
       </c>
@@ -1545,20 +1545,23 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I1:I2"/>
@@ -1569,9 +1572,6 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
